--- a/UploadFile/testingtrue.xlsx
+++ b/UploadFile/testingtrue.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
